--- a/python/three/night3 noise=0.01 SD t1=6 t2=3 t3=2 δ1=0.4 δ2=0.1.xlsx
+++ b/python/three/night3 noise=0.01 SD t1=6 t2=3 t3=2 δ1=0.4 δ2=0.1.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0146</t>
         </is>
       </c>
     </row>
@@ -515,12 +515,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.87e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>72.7</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.19e+00</t>
+          <t>3.29e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.19e+00</t>
+          <t>3.29e+00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>14.3</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.47e-01</t>
+          <t>4.22e-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.192</t>
+          <t>0.805</t>
         </is>
       </c>
     </row>
@@ -643,12 +643,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.54e-01</t>
+          <t>1.49e-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>5.06</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.96e-07</t>
+          <t>7.4e-07</t>
         </is>
       </c>
     </row>

--- a/python/three/night3 noise=0.01 SD t1=6 t2=3 t3=2 δ1=0.4 δ2=0.1.xlsx
+++ b/python/three/night3 noise=0.01 SD t1=6 t2=3 t3=2 δ1=0.4 δ2=0.1.xlsx
@@ -478,17 +478,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.86e-10</t>
+          <t>3.17e-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.01e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0163</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.56e-06</t>
+          <t>2.71e-06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>2.47e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>38.9</t>
         </is>
       </c>
     </row>
@@ -542,17 +542,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.2e-07</t>
+          <t>2.08e-07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.29e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>
@@ -574,17 +574,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.2e-07</t>
+          <t>2.08e-07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.29e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.85e-08</t>
+          <t>3.21e-08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.22e-01</t>
+          <t>4.23e-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.805</t>
+          <t>0.573</t>
         </is>
       </c>
     </row>
@@ -638,17 +638,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.11e-07</t>
+          <t>1.92e-07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.49e-01</t>
+          <t>1.85e-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.38e-15</t>
+          <t>1.6e-14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.4e-07</t>
+          <t>9.34e-07</t>
         </is>
       </c>
     </row>
